--- a/hardware/Soldermander/fab/1.0.1/BOM_JLCSMT.xlsx
+++ b/hardware/Soldermander/fab/1.0.1/BOM_JLCSMT.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/adcs/hardware/Soldermander/fab/1.0.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799024F2-A6C4-E146-8BEC-6EDFCC2F8DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CBE2D-D875-C740-9F04-675575F60529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="640" windowWidth="24980" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="640" windowWidth="24980" windowHeight="17460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="218">
   <si>
     <t>Comment</t>
   </si>
@@ -493,6 +494,222 @@
   </si>
   <si>
     <t>C180221</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Footprint (for JLCPCB)</t>
+  </si>
+  <si>
+    <t>JLCPCB P/N</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>C_1210_3225Metric</t>
+  </si>
+  <si>
+    <t>R_2512_6332Metric</t>
+  </si>
+  <si>
+    <t>SRP3212-3R3M</t>
+  </si>
+  <si>
+    <t>SRN6045TA-331K</t>
+  </si>
+  <si>
+    <t>SNR4030-4R7MT</t>
+  </si>
+  <si>
+    <t>TPS54226PWPR</t>
+  </si>
+  <si>
+    <t>MIMXRT1176AVM8A</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>EM064LXQADG13IS1T</t>
+  </si>
+  <si>
+    <t>SON127P800X600X95-9N-D</t>
+  </si>
+  <si>
+    <t>XRCGB24M000F1H01R0</t>
+  </si>
+  <si>
+    <t>20021221-00010C4LF</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SWITCH_SMT4.6X2.8</t>
+  </si>
+  <si>
+    <t>BTN_KMR2_4.6X2.8</t>
+  </si>
+  <si>
+    <t>BLM15AG121SN1D</t>
+  </si>
+  <si>
+    <t>H2, H3, H4</t>
+  </si>
+  <si>
+    <t>MountingHole_Pad</t>
+  </si>
+  <si>
+    <t>MountingHole_2.7mm_M2.5_DIN965_Pad</t>
+  </si>
+  <si>
+    <t>J2, J4</t>
+  </si>
+  <si>
+    <t>MOLEX_35362-0650</t>
+  </si>
+  <si>
+    <t>U262-161N-4BVC11</t>
+  </si>
+  <si>
+    <t>BD125-10-A-0305-0580-L-B</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Conn_01x06</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>SAMTEC-FTS-105-03-X-DV</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Power Rating</t>
+  </si>
+  <si>
+    <t>Voltage Rating</t>
+  </si>
+  <si>
+    <t>10V, 50V</t>
+  </si>
+  <si>
+    <t>50V, 10V</t>
+  </si>
+  <si>
+    <t>6.3V, 10V</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>100uF 16V X5R 1210</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>50V, 6.3V</t>
+  </si>
+  <si>
+    <t>3.3nF +-10% 100V X7R 0603</t>
+  </si>
+  <si>
+    <t>5.1k 0402</t>
+  </si>
+  <si>
+    <t>22.1K 0402</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>30.1K 0402</t>
+  </si>
+  <si>
+    <t>73.2K 0402</t>
+  </si>
+  <si>
+    <t>3.3uH Shielded Inductor</t>
+  </si>
+  <si>
+    <t>3.1A, 3.4A Saturation</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Adjustable Switching Regulator</t>
+  </si>
+  <si>
+    <t>Load Switch</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>STT-MRAM (xSPI)</t>
+  </si>
+  <si>
+    <t>NAND Flash</t>
+  </si>
+  <si>
+    <t>USB TVS diodes</t>
+  </si>
+  <si>
+    <t>SDRAM</t>
+  </si>
+  <si>
+    <t>Adjustable LDO</t>
+  </si>
+  <si>
+    <t>Level Shifter</t>
+  </si>
+  <si>
+    <t>24.0mHz Crystal Oscillator</t>
+  </si>
+  <si>
+    <t>32.768kHz Crystal Oscillator</t>
+  </si>
+  <si>
+    <t>Ferrite Bead</t>
+  </si>
+  <si>
+    <t>6-pin sherlock through-hole connector</t>
+  </si>
+  <si>
+    <t>Hirose Board-to-Board Connector</t>
+  </si>
+  <si>
+    <t>USB C Receptacle</t>
+  </si>
+  <si>
+    <t>JTAG/SWD 10-pin connector</t>
   </si>
 </sst>
 </file>
@@ -921,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1561,4 +1778,1150 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53263F2E-4F3C-FD4E-977A-74B3858FC4A7}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>402</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4">
+        <v>402</v>
+      </c>
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5">
+        <v>603</v>
+      </c>
+      <c r="I5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6">
+        <v>402</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7">
+        <v>1210</v>
+      </c>
+      <c r="I7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8">
+        <v>402</v>
+      </c>
+      <c r="I8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9">
+        <v>402</v>
+      </c>
+      <c r="I9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10">
+        <v>402</v>
+      </c>
+      <c r="I10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <v>402</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12">
+        <v>402</v>
+      </c>
+      <c r="I12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>402</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>402</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>402</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>402</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>402</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>402</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>402</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>402</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21">
+        <v>402</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22">
+        <v>402</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>2512</v>
+      </c>
+      <c r="H23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>402</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>402</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>402</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>402</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28">
+        <v>402</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29">
+        <v>402</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>402</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49">
+        <v>401</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51">
+        <v>353620650</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51">
+        <v>353620650</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>